--- a/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 22.12.20.xlsx
+++ b/Daily Sales & Allocation/Daily Sales Decem'2020/Daily Sales 22.12.20.xlsx
@@ -1775,102 +1775,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1880,6 +1784,102 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="17" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="19" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2553,8 +2553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD65539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU3" sqref="AU3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2605,162 +2605,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30.75">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165"/>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="165"/>
-      <c r="T1" s="165"/>
-      <c r="U1" s="165"/>
-      <c r="V1" s="165"/>
-      <c r="W1" s="165"/>
-      <c r="X1" s="165"/>
-      <c r="Y1" s="165"/>
-      <c r="Z1" s="165"/>
-      <c r="AA1" s="165"/>
-      <c r="AB1" s="165"/>
-      <c r="AC1" s="165"/>
-      <c r="AD1" s="165"/>
-      <c r="AE1" s="165"/>
-      <c r="AF1" s="165"/>
-      <c r="AG1" s="165"/>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="165"/>
-      <c r="AJ1" s="165"/>
-      <c r="AK1" s="165"/>
-      <c r="AL1" s="165"/>
-      <c r="AM1" s="165"/>
-      <c r="AN1" s="165"/>
-      <c r="AO1" s="165"/>
-      <c r="AP1" s="165"/>
-      <c r="AQ1" s="165"/>
-      <c r="AR1" s="165"/>
-      <c r="AS1" s="165"/>
-      <c r="AT1" s="165"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
+      <c r="P1" s="161"/>
+      <c r="Q1" s="161"/>
+      <c r="R1" s="161"/>
+      <c r="S1" s="161"/>
+      <c r="T1" s="161"/>
+      <c r="U1" s="161"/>
+      <c r="V1" s="161"/>
+      <c r="W1" s="161"/>
+      <c r="X1" s="161"/>
+      <c r="Y1" s="161"/>
+      <c r="Z1" s="161"/>
+      <c r="AA1" s="161"/>
+      <c r="AB1" s="161"/>
+      <c r="AC1" s="161"/>
+      <c r="AD1" s="161"/>
+      <c r="AE1" s="161"/>
+      <c r="AF1" s="161"/>
+      <c r="AG1" s="161"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="161"/>
+      <c r="AJ1" s="161"/>
+      <c r="AK1" s="161"/>
+      <c r="AL1" s="161"/>
+      <c r="AM1" s="161"/>
+      <c r="AN1" s="161"/>
+      <c r="AO1" s="161"/>
+      <c r="AP1" s="161"/>
+      <c r="AQ1" s="161"/>
+      <c r="AR1" s="161"/>
+      <c r="AS1" s="161"/>
+      <c r="AT1" s="161"/>
     </row>
     <row r="2" spans="1:56" ht="21" thickBot="1">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="166"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="162"/>
+      <c r="O2" s="162"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="162"/>
+      <c r="S2" s="162"/>
+      <c r="T2" s="162"/>
+      <c r="U2" s="162"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="162"/>
+      <c r="X2" s="162"/>
+      <c r="Y2" s="162"/>
+      <c r="Z2" s="162"/>
+      <c r="AA2" s="162"/>
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="162"/>
+      <c r="AD2" s="162"/>
+      <c r="AE2" s="162"/>
+      <c r="AF2" s="162"/>
+      <c r="AG2" s="162"/>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="162"/>
+      <c r="AJ2" s="162"/>
+      <c r="AK2" s="162"/>
+      <c r="AL2" s="162"/>
+      <c r="AM2" s="162"/>
+      <c r="AN2" s="162"/>
+      <c r="AO2" s="162"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="162"/>
+      <c r="AR2" s="162"/>
+      <c r="AS2" s="162"/>
+      <c r="AT2" s="162"/>
     </row>
     <row r="3" spans="1:56" ht="18.75">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="169"/>
-      <c r="AJ3" s="169"/>
-      <c r="AK3" s="169"/>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="169"/>
-      <c r="AN3" s="169"/>
-      <c r="AO3" s="169"/>
-      <c r="AP3" s="169"/>
-      <c r="AQ3" s="169"/>
-      <c r="AR3" s="169"/>
-      <c r="AS3" s="169"/>
-      <c r="AT3" s="169"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="165"/>
+      <c r="M3" s="165"/>
+      <c r="N3" s="165"/>
+      <c r="O3" s="165"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="165"/>
+      <c r="S3" s="165"/>
+      <c r="T3" s="165"/>
+      <c r="U3" s="165"/>
+      <c r="V3" s="165"/>
+      <c r="W3" s="165"/>
+      <c r="X3" s="165"/>
+      <c r="Y3" s="165"/>
+      <c r="Z3" s="165"/>
+      <c r="AA3" s="165"/>
+      <c r="AB3" s="165"/>
+      <c r="AC3" s="165"/>
+      <c r="AD3" s="165"/>
+      <c r="AE3" s="165"/>
+      <c r="AF3" s="165"/>
+      <c r="AG3" s="165"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="165"/>
+      <c r="AJ3" s="165"/>
+      <c r="AK3" s="165"/>
+      <c r="AL3" s="165"/>
+      <c r="AM3" s="165"/>
+      <c r="AN3" s="165"/>
+      <c r="AO3" s="165"/>
+      <c r="AP3" s="165"/>
+      <c r="AQ3" s="165"/>
+      <c r="AR3" s="165"/>
+      <c r="AS3" s="165"/>
+      <c r="AT3" s="165"/>
     </row>
     <row r="4" spans="1:56" ht="15">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="170"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
+      <c r="B4" s="166"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
       <c r="E4" s="88">
         <v>0</v>
       </c>
@@ -2785,10 +2785,10 @@
       <c r="L4" s="150">
         <v>300</v>
       </c>
-      <c r="M4" s="170">
-        <v>0</v>
-      </c>
-      <c r="N4" s="170"/>
+      <c r="M4" s="166">
+        <v>0</v>
+      </c>
+      <c r="N4" s="166"/>
       <c r="O4" s="150">
         <v>1420</v>
       </c>
@@ -2811,24 +2811,24 @@
       <c r="Z4" s="88"/>
       <c r="AA4" s="88"/>
       <c r="AB4" s="88"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="171"/>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="171"/>
-      <c r="AG4" s="171"/>
-      <c r="AH4" s="171"/>
-      <c r="AI4" s="171"/>
-      <c r="AJ4" s="171"/>
-      <c r="AK4" s="171"/>
-      <c r="AL4" s="171"/>
-      <c r="AM4" s="171"/>
-      <c r="AN4" s="171"/>
-      <c r="AO4" s="171"/>
-      <c r="AP4" s="171"/>
-      <c r="AQ4" s="171"/>
-      <c r="AR4" s="171"/>
-      <c r="AS4" s="171"/>
-      <c r="AT4" s="171"/>
+      <c r="AC4" s="167"/>
+      <c r="AD4" s="167"/>
+      <c r="AE4" s="167"/>
+      <c r="AF4" s="167"/>
+      <c r="AG4" s="167"/>
+      <c r="AH4" s="167"/>
+      <c r="AI4" s="167"/>
+      <c r="AJ4" s="167"/>
+      <c r="AK4" s="167"/>
+      <c r="AL4" s="167"/>
+      <c r="AM4" s="167"/>
+      <c r="AN4" s="167"/>
+      <c r="AO4" s="167"/>
+      <c r="AP4" s="167"/>
+      <c r="AQ4" s="167"/>
+      <c r="AR4" s="167"/>
+      <c r="AS4" s="167"/>
+      <c r="AT4" s="167"/>
       <c r="AV4" s="6"/>
       <c r="AW4" s="6"/>
       <c r="AX4" s="6"/>
@@ -2840,12 +2840,12 @@
       <c r="BD4" s="6"/>
     </row>
     <row r="5" spans="1:56" ht="15">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
       <c r="E5" s="88"/>
       <c r="F5" s="88"/>
       <c r="G5" s="88"/>
@@ -2878,24 +2878,24 @@
       <c r="Z5" s="88"/>
       <c r="AA5" s="88"/>
       <c r="AB5" s="88"/>
-      <c r="AC5" s="171"/>
-      <c r="AD5" s="171"/>
-      <c r="AE5" s="171"/>
-      <c r="AF5" s="171"/>
-      <c r="AG5" s="171"/>
-      <c r="AH5" s="171"/>
-      <c r="AI5" s="171"/>
-      <c r="AJ5" s="171"/>
-      <c r="AK5" s="171"/>
-      <c r="AL5" s="171"/>
-      <c r="AM5" s="171"/>
-      <c r="AN5" s="171"/>
-      <c r="AO5" s="171"/>
-      <c r="AP5" s="171"/>
-      <c r="AQ5" s="171"/>
-      <c r="AR5" s="171"/>
-      <c r="AS5" s="171"/>
-      <c r="AT5" s="171"/>
+      <c r="AC5" s="167"/>
+      <c r="AD5" s="167"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="167"/>
+      <c r="AG5" s="167"/>
+      <c r="AH5" s="167"/>
+      <c r="AI5" s="167"/>
+      <c r="AJ5" s="167"/>
+      <c r="AK5" s="167"/>
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="167"/>
+      <c r="AN5" s="167"/>
+      <c r="AO5" s="167"/>
+      <c r="AP5" s="167"/>
+      <c r="AQ5" s="167"/>
+      <c r="AR5" s="167"/>
+      <c r="AS5" s="167"/>
+      <c r="AT5" s="167"/>
       <c r="AV5" s="6"/>
       <c r="AW5" s="6"/>
       <c r="AX5" s="6"/>
@@ -5235,11 +5235,11 @@
       <c r="BD28" s="6"/>
     </row>
     <row r="29" spans="1:56" s="1" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A29" s="172" t="s">
+      <c r="A29" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
+      <c r="B29" s="169"/>
+      <c r="C29" s="169"/>
       <c r="D29" s="110">
         <f t="shared" ref="D29:AT29" si="13">SUM(D7:D28)</f>
         <v>187060</v>
@@ -5424,10 +5424,10 @@
       <c r="BD29" s="121"/>
     </row>
     <row r="30" spans="1:56" ht="15.75" thickBot="1">
-      <c r="A30" s="174" t="s">
+      <c r="A30" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="175"/>
+      <c r="B30" s="171"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
       <c r="E30" s="34">
@@ -5585,44 +5585,44 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="163" t="s">
+      <c r="D32" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="163"/>
-      <c r="F32" s="163"/>
-      <c r="G32" s="163"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="163"/>
-      <c r="J32" s="163"/>
-      <c r="K32" s="163"/>
-      <c r="L32" s="163"/>
-      <c r="M32" s="163"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
       <c r="O32" s="23"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="AR32" s="164" t="s">
+      <c r="AR32" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="AS32" s="164"/>
-      <c r="AT32" s="164"/>
+      <c r="AS32" s="160"/>
+      <c r="AT32" s="160"/>
       <c r="AU32" s="14"/>
     </row>
     <row r="33" spans="1:47" ht="15.75">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="159" t="s">
+      <c r="D33" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="159"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="176"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="176"/>
+      <c r="K33" s="176"/>
       <c r="L33" s="149"/>
       <c r="M33" s="149">
         <v>189574.375</v>
@@ -5645,16 +5645,16 @@
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="160" t="s">
+      <c r="D34" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="160"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
-      <c r="K34" s="160"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
       <c r="L34" s="45"/>
       <c r="M34" s="128">
         <v>24194.965000000026</v>
@@ -5679,14 +5679,14 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="161"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="178"/>
+      <c r="K35" s="178"/>
       <c r="L35" s="148"/>
       <c r="M35" s="129">
         <f>M33+M34</f>
@@ -5710,16 +5710,16 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="162" t="s">
+      <c r="D36" s="179" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="162"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="162"/>
+      <c r="E36" s="179"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="179"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="179"/>
+      <c r="J36" s="179"/>
+      <c r="K36" s="179"/>
       <c r="L36" s="148"/>
       <c r="M36" s="128">
         <v>58116</v>
@@ -5745,16 +5745,16 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="159" t="s">
+      <c r="D37" s="176" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="159"/>
-      <c r="K37" s="159"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="176"/>
       <c r="L37" s="132"/>
       <c r="M37" s="130">
         <f>M35-M36</f>
@@ -5775,16 +5775,16 @@
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="161" t="s">
+      <c r="D38" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="161"/>
-      <c r="F38" s="161"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="161"/>
-      <c r="K38" s="161"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="178"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
+      <c r="K38" s="178"/>
       <c r="L38" s="148"/>
       <c r="M38" s="148">
         <v>150000</v>
@@ -5803,16 +5803,16 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="155" t="s">
+      <c r="D39" s="172" t="s">
         <v>84</v>
       </c>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="157"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="174"/>
       <c r="L39" s="46"/>
       <c r="M39" s="129">
         <f>M37-M38</f>
@@ -5833,16 +5833,16 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="158" t="s">
+      <c r="D40" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="158"/>
-      <c r="F40" s="158"/>
-      <c r="G40" s="158"/>
-      <c r="H40" s="158"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="158"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
       <c r="L40" s="147"/>
       <c r="M40" s="131">
         <f>M36+M39</f>
@@ -6586,6 +6586,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="D34:K34"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D38:K38"/>
     <mergeCell ref="D32:M32"/>
     <mergeCell ref="AR32:AT32"/>
     <mergeCell ref="A1:AT1"/>
@@ -6601,14 +6609,6 @@
     <mergeCell ref="AC5:AT5"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="D34:K34"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="D38:K38"/>
   </mergeCells>
   <conditionalFormatting sqref="AP7:AP28">
     <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="greaterThan">
@@ -6711,104 +6711,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
+      <c r="B1" s="183"/>
+      <c r="C1" s="183"/>
+      <c r="D1" s="183"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+      <c r="J1" s="183"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
+      <c r="N1" s="183"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
+      <c r="A2" s="183"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
+      <c r="H2" s="183"/>
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
     </row>
     <row r="3" spans="1:17" s="14" customFormat="1" ht="7.5" hidden="1" customHeight="1">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
     </row>
     <row r="4" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="180"/>
-      <c r="F4" s="180"/>
-      <c r="G4" s="180"/>
-      <c r="H4" s="180"/>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="180"/>
-      <c r="M4" s="180"/>
-      <c r="N4" s="180"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
     </row>
     <row r="5" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="184" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
-      <c r="D5" s="180"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="180"/>
-      <c r="H5" s="180"/>
-      <c r="I5" s="180"/>
-      <c r="J5" s="180"/>
-      <c r="K5" s="180"/>
-      <c r="L5" s="180"/>
-      <c r="M5" s="180"/>
-      <c r="N5" s="180"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
     </row>
     <row r="6" spans="1:17" s="14" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="183"/>
-      <c r="D6" s="184" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
       <c r="I6" s="135"/>
       <c r="J6" s="135"/>
       <c r="K6" s="135"/>
@@ -7289,11 +7289,11 @@
       <c r="N28" s="83"/>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="177"/>
-      <c r="C29" s="178"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="182"/>
       <c r="D29" s="67">
         <f t="shared" ref="D29:J29" si="0">SUM(D8:D28)</f>
         <v>0</v>
@@ -8014,166 +8014,166 @@
       <c r="B1" s="191"/>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="186"/>
+      <c r="B2" s="190"/>
     </row>
     <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="188" t="s">
+      <c r="B3" s="156" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="156" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="187" t="s">
+      <c r="A5" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="188" t="s">
+      <c r="B5" s="156" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="188" t="s">
+      <c r="B6" s="156" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="188"/>
+      <c r="B7" s="156"/>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="187" t="s">
+      <c r="A8" s="155" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="156" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="187" t="s">
+      <c r="A9" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="188"/>
+      <c r="B9" s="156"/>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="187" t="s">
+      <c r="A10" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="156" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="187" t="s">
+      <c r="A11" s="155" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="188">
+      <c r="B11" s="156">
         <v>1737712712</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
-      <c r="A12" s="187" t="s">
+      <c r="A12" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="B12" s="188" t="s">
+      <c r="B12" s="156" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="187" t="s">
+      <c r="A13" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="188"/>
+      <c r="B13" s="156"/>
     </row>
     <row r="14" spans="1:2" ht="15">
-      <c r="A14" s="187" t="s">
+      <c r="A14" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="B14" s="188"/>
+      <c r="B14" s="156"/>
     </row>
     <row r="15" spans="1:2" ht="15">
-      <c r="A15" s="187" t="s">
+      <c r="A15" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="188"/>
+      <c r="B15" s="156"/>
     </row>
     <row r="16" spans="1:2" ht="15">
-      <c r="A16" s="187" t="s">
+      <c r="A16" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="188"/>
+      <c r="B16" s="156"/>
     </row>
     <row r="17" spans="1:2" ht="15">
-      <c r="A17" s="187" t="s">
+      <c r="A17" s="155" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="156" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="155" t="s">
         <v>93</v>
       </c>
-      <c r="B18" s="189">
+      <c r="B18" s="157">
         <v>140009462816</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
-      <c r="A19" s="187" t="s">
+      <c r="A19" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="188"/>
+      <c r="B19" s="156"/>
     </row>
     <row r="20" spans="1:2" ht="15">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="188">
+      <c r="B20" s="156">
         <v>9153768859</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
-      <c r="A21" s="187" t="s">
+      <c r="A21" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="188"/>
+      <c r="B21" s="156"/>
     </row>
     <row r="22" spans="1:2" ht="15">
-      <c r="A22" s="187" t="s">
+      <c r="A22" s="155" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="189">
+      <c r="B22" s="157">
         <v>140009462816</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="155" t="s">
         <v>98</v>
       </c>
-      <c r="B23" s="188"/>
+      <c r="B23" s="156"/>
     </row>
     <row r="24" spans="1:2" ht="15">
-      <c r="A24" s="187" t="s">
+      <c r="A24" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="190"/>
+      <c r="B24" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="2">
